--- a/biology/Botanique/Lys_des_Incas/Lys_des_Incas.xlsx
+++ b/biology/Botanique/Lys_des_Incas/Lys_des_Incas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alstroemeria aurea
-Le lys des Incas (Alstroemeria aurea), encore appelé amancay, est une plante herbacée vivace du genre Alstroemeria et de la famille des Liliacées selon la classification classique de Cronquist (1981)[1] ou des Alstroémériacées selon la classification phylogénétique.
+Le lys des Incas (Alstroemeria aurea), encore appelé amancay, est une plante herbacée vivace du genre Alstroemeria et de la famille des Liliacées selon la classification classique de Cronquist (1981) ou des Alstroémériacées selon la classification phylogénétique.
 C'est une fleur typique de Patagonie qui y fleurit de décembre à mars.
 Synonyme : Alstroemeria aurantiaca D. Don
 </t>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Alstroemeria a été donné en l'honneur du botaniste suédois Clas Alströmer disciple de Linné. 
 </t>
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>fleurit en été
 exposition : mi-ombre, ombre, Soleil
